--- a/escapeGameStory.xlsx
+++ b/escapeGameStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maeve\Documents\Cours\COURS IT2 ENSG\Informatique_mobilite\Programmation-WEB-avancee\Projet\projetweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0BBA4-2C7C-4B91-9A25-5A0BDA868AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AC8EA-A53B-4414-B322-E7304B2E2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C90D28AD-B0BC-44F2-8740-249AAC0A988A}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t>97410 Saint-Pierre (La Réunion)</t>
   </si>
   <si>
-    <t>88700 Rambervilliers</t>
-  </si>
-  <si>
     <t>73340 Arith</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>4 chemin des lilas 62500 Zudausques</t>
+  </si>
+  <si>
+    <t>11 rue de la chambre 88700 Domptail</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -797,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -840,7 +840,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -932,7 +932,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -946,7 +946,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -969,7 +969,7 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -1015,7 +1015,7 @@
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1052,7 +1052,7 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
@@ -1078,7 +1078,7 @@
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
